--- a/TAQUARA.xlsx
+++ b/TAQUARA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE23FC3-90DE-4DF5-ADF8-4C778FCC96E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5195BF3-2BAA-40B0-A35F-B40BDEB80DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1471,7 +1471,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{27688CB6-38CB-4724-A917-EAD3EC021BAA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{76333346-4F3D-4156-819A-83A570C4073C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,10 +1501,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2592B7-ECB3-4998-A92C-B498BE8F8C8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424EDD2C-9EDA-4EAC-85CF-883EC9A51D11}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2AE4A4-C8F8-4361-89B9-8F822BAD2A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7FCB72-67BD-465B-87F3-C8EC44D6F8E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1605,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D0719D-4640-4FDB-BA79-0EA6A0962A5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADC400D-59DA-4E40-9747-922ED94E3A38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1624,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1B31B0-F172-12EB-8B35-16013D87718B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2E1D05-D115-1FDE-A316-D091A9369612}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1673,7 +1673,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD173C30-4411-72E6-7481-43B61D13DAE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100B27AE-B08B-045D-4FBC-A45172B60746}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1692,7 +1692,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5280C7B5-1EEA-2D92-893B-97A58B234280}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8BEF27-541C-FE45-A58A-34E4FCEC927B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF980328-7641-B9F4-95C5-92796A490828}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B45D27-F5C4-E24E-7349-B880BA5B3B37}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1754,7 +1754,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8299EE79-24F8-9C9F-E9B4-C98798561CF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5037F8A8-1B80-E8CF-BB92-8E08B5F078B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1797,7 +1797,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F480BF-675A-4427-8C79-54B93101DC3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2349DF09-36E0-4763-883E-5F06AB99D220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1835,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2B2FF4-16BE-4DF6-B02F-D379331BDE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59C4E5D-2F46-4C17-9764-55AE4ECE8BB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1878,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E528E3-A4D9-4A11-BBC0-B05CB1E52546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDA3C45-E94F-4AE1-87E0-E80302AB866D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F07D71-DAC1-4E11-912F-AC6CCD155235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE0C46F-11CE-467F-A397-A365E6E3307B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TAQUARA.xlsx
+++ b/TAQUARA.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5195BF3-2BAA-40B0-A35F-B40BDEB80DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F99F6B4-2324-488D-B5D0-8F4A94FEDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="BENS-INTERINOS" sheetId="3" r:id="rId4"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="4" r:id="rId5"/>
     <sheet name="CPIP" sheetId="5" r:id="rId6"/>
     <sheet name="TCA" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="376">
   <si>
     <t>Número</t>
   </si>
@@ -1163,12 +1162,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1451,27 +1444,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{76333346-4F3D-4156-819A-83A570C4073C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A5151BF2-FF73-463A-B098-CC500AB92A8C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,10 +1479,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424EDD2C-9EDA-4EAC-85CF-883EC9A51D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B695E893-8FC8-4572-8B28-DAEEE9DDFF15}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1520,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7FCB72-67BD-465B-87F3-C8EC44D6F8E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60973F89-B5B8-4636-B40A-E0EF7CF15734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1583,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADC400D-59DA-4E40-9747-922ED94E3A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5113F29-8491-4A13-AA1F-6CE7516A7763}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1602,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2E1D05-D115-1FDE-A316-D091A9369612}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0CFDEA-6D4C-09E2-435D-6415CB233DD7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1673,7 +1651,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100B27AE-B08B-045D-4FBC-A45172B60746}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39D00EB-6A22-A331-F7E7-0305DB9650A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1692,7 +1670,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8BEF27-541C-FE45-A58A-34E4FCEC927B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903E9711-312A-BF34-4E1E-2995B689FF85}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1723,7 +1701,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B45D27-F5C4-E24E-7349-B880BA5B3B37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F33E385-EAD5-DC02-8757-66EA98A5EF5F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1754,7 +1732,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5037F8A8-1B80-E8CF-BB92-8E08B5F078B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9949D06F-62D8-41B1-6BA5-2312CCF05171}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1797,7 +1775,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2349DF09-36E0-4763-883E-5F06AB99D220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A9E2FF-1978-4738-A0B9-DFAB5F44E54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1813,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59C4E5D-2F46-4C17-9764-55AE4ECE8BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95348D91-2EE4-43A5-A31E-6645E9A00BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1856,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDA3C45-E94F-4AE1-87E0-E80302AB866D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8375887C-C1DD-479A-B8E0-FFCC85419F93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE0C46F-11CE-467F-A397-A365E6E3307B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A5D9FA-C0DA-46E0-B70C-1B1906099466}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2203,98 +2181,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7223,52 +7201,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1" s="35">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="38">
-        <v>24</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1.5870916545430501E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TAQUARA.xlsx
+++ b/TAQUARA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F99F6B4-2324-488D-B5D0-8F4A94FEDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1668C361-F326-4BB8-A918-7EA5AF1423DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A5151BF2-FF73-463A-B098-CC500AB92A8C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3D48CDA4-B41C-4739-8853-4139F8423627}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1479,10 +1479,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B695E893-8FC8-4572-8B28-DAEEE9DDFF15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B800F5-AD35-46A5-8501-ACD8F7043418}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60973F89-B5B8-4636-B40A-E0EF7CF15734}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A519B8-1097-44C1-B99D-422A9F8D4F53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5113F29-8491-4A13-AA1F-6CE7516A7763}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608147E4-E02F-4EDF-8E66-7717D0053F3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1602,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0CFDEA-6D4C-09E2-435D-6415CB233DD7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C416B3-201F-EB6B-31E6-09A8F44BF981}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39D00EB-6A22-A331-F7E7-0305DB9650A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A04429-C898-6D3D-04FB-AF482BE0D938}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1670,7 +1670,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903E9711-312A-BF34-4E1E-2995B689FF85}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9477FE5-1ABC-88E6-A9FE-397F8851ADB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1701,7 +1701,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F33E385-EAD5-DC02-8757-66EA98A5EF5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1648E987-DC70-7ED6-1D99-16463269D2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1732,7 +1732,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9949D06F-62D8-41B1-6BA5-2312CCF05171}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D510B38F-7880-E51F-20AF-740853685932}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1775,7 +1775,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A9E2FF-1978-4738-A0B9-DFAB5F44E54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195EE929-24BA-4F64-8FE7-CC76903B0529}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1813,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95348D91-2EE4-43A5-A31E-6645E9A00BF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9413CE3B-6858-49A5-B38E-E4134B9C578C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,50 +1838,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8375887C-C1DD-479A-B8E0-FFCC85419F93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2169,7 +2125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A5D9FA-C0DA-46E0-B70C-1B1906099466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E7CA8-FB17-492C-B1E9-64AEE3173D9A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TAQUARA.xlsx
+++ b/TAQUARA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1668C361-F326-4BB8-A918-7EA5AF1423DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE6AB23-6D7F-43EA-9DDF-CAEB270F7952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="332">
   <si>
     <t>Número</t>
   </si>
@@ -914,7 +914,7 @@
     <t>codigoLocal</t>
   </si>
   <si>
-    <t>MESA DE MADEIRA 130 X 70 X 74CM, COM PAINEL FRONTAL, ESTE REVESTIDO EXTERNAMENTE EM FORMICA NA COR CASCA DE OVO SEM BRILHO, RECUADO EM 15CM, COM UM GAVETEIRO DE TRES GAVETAS, COM FECHADURA, LAMINADO INTERNA E EXTERNAMENTE EM LOURO FREIJO CLARO, EM AGLOMERADO DE 2CM DE ESPESSURA, LATERAIS LAMINADAS INTERNA E EXTERNAMENTE EM LOURO FREIJO CLARO DE 3CMCOM TRES GAVETAS, REVESTIDO EM FORMICA NA COR CASCA DE OVO SEM BRILHO E EM LOURO FREIJO, MARCA TAPEJARA.</t>
+    <t>Mesas de centro, modelo MC-FMI-1, medidas 1000mmx500mmx380mm (CxLxA), com estrutura metálica com pintura industrial em preto fosco, madeira imbuía natural clara, tampo revestido com laminado melamínico texturizado padrão jacarandá das ilhas n.º 119, ou similar, bordas dos painéis chapeadas, inclusive a inferior. Demais especificações conforme "Manual Normativo de Mobiliário Padrão", portaria n° 018/80, do Ministério da Fazenda.</t>
   </si>
   <si>
     <t>8.2023.7191/000004-0</t>
@@ -923,100 +923,37 @@
     <t>TAQUARA - FORO</t>
   </si>
   <si>
+    <t>2ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>CARTÓRIO - SALA 600</t>
+  </si>
+  <si>
+    <t>Estante de aço com 07 prateleiras, dimensões: 925mmx440mmx2000mm (LxPxA); prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
+  </si>
+  <si>
+    <t>Superfície Retangular SR3T, 900x600x730mm, com suporte para teclado.</t>
+  </si>
+  <si>
+    <t>ESTANTE DE ACO COM 7 PRATELEIRASCHAPA N22,REFORCO X DE CHAPA N16, MOD. TS-1,MARCA TRES S</t>
+  </si>
+  <si>
+    <t>8.2024.7191/001140-5</t>
+  </si>
+  <si>
+    <t>DIREÇÃO DO FORO</t>
+  </si>
+  <si>
+    <t>ARQUIVO - SALA 206</t>
+  </si>
+  <si>
+    <t>MESA PARA MICROCOMPUTADOR 90 X 70 X 74CM EM MADEIRA 40KGCOR CASCA DE OVO, MARCA TAPEJARA</t>
+  </si>
+  <si>
     <t>DISTRIBUIÇÃO E CONTADORIA</t>
   </si>
   <si>
-    <t>CARTÓRIO - TÉRREO</t>
-  </si>
-  <si>
-    <t>CADEIRA ESTOFADA GIRATORIAREVESTIDA EM VINIL PRETO, SEM COSTURA, ENCOSTO REGULAVEL, MARCA TRES S</t>
-  </si>
-  <si>
-    <t>DIREÇÃO DO FORO</t>
-  </si>
-  <si>
-    <t>DEPOSITO - 7º ANDAR</t>
-  </si>
-  <si>
-    <t>MESA DE MADEIRA AUXILIAR 110 X 50 X 68CM, COM PAINEL FRONTAL, ESTE REVESTIDO EXTERNAMENTE EM FORMICA NA COR CASCA DE OVO SEM BRILHO, RECUADO EM 10CM, LATERAIS LAMINADAS INTERNA E EXTERNAMENTA EM LOURO FREIJO CLARO DE 3CM DE ESPESSURA, TAMPO REVESTIDO EM FORMICA NA COR CASCA DE OVO SEM BRILHOCOR CASCA DE OVO, LATERAIS EM LOURO FREIJO, MARCA TAPEJARA</t>
-  </si>
-  <si>
-    <t>POLTRONAS ESTOFADAS GIRATORIAS, ESPALDAR MEDIO, DEMAIS ESPECIFICACOES CONFORME CODIGO 1115.0;3401-R RELAX</t>
-  </si>
-  <si>
-    <t>Mesas de centro, modelo MC-FMI-1, medidas 1000mmx500mmx380mm (CxLxA), com estrutura metálica com pintura industrial em preto fosco, madeira imbuía natural clara, tampo revestido com laminado melamínico texturizado padrão jacarandá das ilhas n.º 119, ou similar, bordas dos painéis chapeadas, inclusive a inferior. Demais especificações conforme "Manual Normativo de Mobiliário Padrão", portaria n° 018/80, do Ministério da Fazenda.</t>
-  </si>
-  <si>
-    <t>2ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>CARTÓRIO - SALA 600</t>
-  </si>
-  <si>
-    <t>Estante de aço com 07 prateleiras, dimensões: 925mmx440mmx2000mm (LxPxA); prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
-  </si>
-  <si>
-    <t>Monitor LCD 19' Lenovo L1900p (4431-HE1)</t>
-  </si>
-  <si>
-    <t>1ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>CARTÓRIO SALAS 300/301</t>
-  </si>
-  <si>
-    <t>Superfície Retangular SR3T, 900x600x730mm, com suporte para teclado.</t>
-  </si>
-  <si>
-    <t>CADEIRA ESTOFADA GIRATORIASEM BRA¿OS, REVESTIDA EM CURVIM PRETO, MARCA MOVESUL.</t>
-  </si>
-  <si>
-    <t>8.2023.7191/000345-7</t>
-  </si>
-  <si>
-    <t>PORTO ALEGRE - DMP - BAIXADOS</t>
-  </si>
-  <si>
-    <t>SERVIÇO DE GESTÃO DE PATRIMÔNIO - BAIXADOS</t>
-  </si>
-  <si>
-    <t>BENS BAIXADOS</t>
-  </si>
-  <si>
-    <t>POLTRONA ESTOFADA FIXA, COM BRACO, DE APROXIMACAOPRETA, COM ESTRUTURA CROMADA</t>
-  </si>
-  <si>
-    <t>Módulo de Balcão de Atendimento - BA60-P, 600x500x1100mm, tipo portinhola.</t>
-  </si>
-  <si>
-    <t>Poltrona estofada giratória, espaldar médio, estofamento do assento e do encosto em espuma injetada com respiro e indeformável , medidas do assento de 485x485mm (LxP) e do encosto de 430x460mm (LxA), com detalhes em costuras duplas no sentido horizontal do assento e do encosto, desenho formando painéis de gomos horizontais com, aproximadamente, 5 cm de largura, destacado pelas costuras duplas e contorno em forma de moldura, também com costura dupla; revestimento em couro sintético reforçado, na cor preta, com proteção das bordas do assento e do encosto em material polimérico de alto impacto tipo macho-fêmea; apoia-braços abertos com alma de aço e acabamento em poliuretano injetado semirrígido com formato arredondado; o sistema de fixação (parafusos) dos apoia-braços não poderá estar aparente; base giratória 100% nylon, estrela com 05 pés de acordo com a NBR 13962, com rodízios tipo Baseflex PU de duplo giro, cor cinza, "h" 63mm, eixo em aço endurecido e pinos de segurança para garantir durabilidade; tubo central com pistão pneumático a gás com capa protetora, sistema de ajuste da altura do assento e ajuste do relax, com travamento de ambos por meio de uma única alavanca trava para relax. Encosto interligado ao assento por meio de chapa de aço retangular reforçada. Mecanismo de relax. De acordo com a Portaria n.º 3751/90, NR-17-ERGONOMIA, do Ministério do Trabalho e Previdência Social. Garantia mínima de 05 anos contra defeitos de fabricação.</t>
-  </si>
-  <si>
-    <t>ESTANTE DE ACO COM 7 PRATELEIRASCHAPA N22,REFORCO X DE CHAPA N16, MOD. TS-1,MARCA TRES S</t>
-  </si>
-  <si>
-    <t>8.2024.7191/001140-5</t>
-  </si>
-  <si>
-    <t>ARQUIVO - SALA 206</t>
-  </si>
-  <si>
-    <t>MESA PARA MICROCOMPUTADOR 90 X 70 X 74CM EM MADEIRA 40KGCOR CASCA DE OVO, MARCA TAPEJARA</t>
-  </si>
-  <si>
     <t>MATERIAL APREENDIDO</t>
-  </si>
-  <si>
-    <t>Poltrona estofada giratória, espaldar médio, estofamento do assento e do encosto em espuma injetada com respiro e indeformável , medidas do assento de 485x485mm (LxP) e do encosto de 430x460mm (LxA), com detalhes em costuras duplas no sentido horizontal do assento e do encosto, desenho formando painéis de gomos horizontais com, aproximadamente, 5 cm de largura, destacado pelas costuras duplas e contorno em forma de moldura também com costura dupla; revestimento em couro sintético reforçado, na cor preta, com proteção das bordas do assento e do encosto em material polimérico de alto impacto tipo macho-fêmea; apóia-braços abertos com alma de aço e acabamento em poliuretano injetado semi-rígido com formato arredondado; o sistema de fixação (parafusos) dos apóia-braços não poderá estar aparente; base giratória 100% nylon, estrela com 05 pés de acordo com a NBR 13962, com rodízios duplos autolubrificantes, com pinos e buchas de metal, tubo central com pistão pneumático a gás com capa protetora, sistema de ajuste da altura do assento e ajuste do relax, com travamento de ambos por meio de uma única alavanca trava para relax. Encosto interligado ao assento por meio de chapa de aço retangular reforçada. Mecanismo de relax. De acordo com a Portaria n.º 3751/90, NR-17-ERGONOMIA, do Ministério do Trabalho e Previdência Social. Garantia mínima de 05 anos contra defeitos de fabricação.</t>
-  </si>
-  <si>
-    <t>SALÃO DO JÚRI</t>
-  </si>
-  <si>
-    <t>Estante de aço com 07 prateleiras, dimensões: 920mmx440mmx1980mm (LxPxA); prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7, acompanhadas das porcas e parafusos.</t>
-  </si>
-  <si>
-    <t>SALÃO DO JÚRI - SALA SECRETA</t>
   </si>
   <si>
     <t>Poltrona giratória espaldar alto com apóia-braços, para Desembargador.
@@ -1028,80 +965,10 @@
 Apóia-braços fixos: Suporte dos apóia-braços em aço cromado. Apóia-braços em poliuretano integral skin revestido em couro.</t>
   </si>
   <si>
-    <t>Estante de aço com 07 prateleiras, dimensões: 920mmx440mmx1980mm (LxPxA); prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
-  </si>
-  <si>
-    <t>SALA DE ARMAS</t>
-  </si>
-  <si>
     <t>Superfície Retangular SR6, 1000x700x730mm.</t>
   </si>
   <si>
     <t>SALA DOS OFICIAIS DE JUSTIÇA - SALA 101/102</t>
-  </si>
-  <si>
-    <t>Poltrona estofada fixa, com apóia-braços, de aproximação, estofamento do assento e do encosto em espuma injetada, com respiro e indeformável, medidas do assento de 485mmx485mm (LxP) e do encosto de 430mmx460mm (LxP), em formato anatômico, com costura dupla no sentido horizontal, tanto do assento como do encosto, desenho formando painel de gomos horizontais com, aproximadamente, 50mm de largura, destacados pelas costuras duplas e contorno em forma de moldura, também com costura dupla; revestimento em couro sintético, na cor preta, com proteção das bordas do assento e do encosto em
-material polimérico tipo macho-fêmea; apóia-braços abertos em poliuretano injetado, com alma de aço e formato arredondado; base em aço tubular com diâmetro externo mínimo de 25mm (parede 1,9mm), em "S" (com balanço), pintura industrial na cor preta, provida de 04 sapatas deslizadoras; assento fixado à estrutura por meio de 04 parafusos sextavados com porca-garra; assento com acabamento na parte inferior em 100% polipropileno. Garantia mínima de 05 anos contra defeitos de fabricação.</t>
-  </si>
-  <si>
-    <t>Unidade evaporadora</t>
-  </si>
-  <si>
-    <t>ÁREA DE CIRCULAÇÃO - 2º ANDAR</t>
-  </si>
-  <si>
-    <t>ÁREA DE CIRCULAÇÃO - 1º ANDAR</t>
-  </si>
-  <si>
-    <t>Equipamento da categoria Switch Ethernet - Tipo 2</t>
-  </si>
-  <si>
-    <t>Shaft 4º andar</t>
-  </si>
-  <si>
-    <t>Poltrona arredondada tipo ferradura</t>
-  </si>
-  <si>
-    <t>SALA DA PSICÓLOGA - SALA 204</t>
-  </si>
-  <si>
-    <t>Cadeira estofada giratória com apoia-braços para digitador, estofamento do assento e do encosto com espuma injetada, com respiro e indeformável, revestimento em couro sintético reforçado, cor preta, formato liso, sem costuras, com proteção de material polimérico de alto impacto tipo macho e fêmea no assento e contracapa injetada com proteção polimérico de alto impacto tipo macho e fêmea no encosto; dimensões do assento de 460x 460mm (LxP) e do encosto de 420x300mm (LxA); apóia-braços, medindo 75x250mm ( LxC), com, no mínimo, 5 (cinco) regulagens de altura, fixados sob o assento com 03 para fusos sextavados com porca-garra; base giratória 100% nylon, estrela com 05 pés, de acordo com NBR 13962, com rodízios tipo Baseflex PU de duplo giro, cor cinza, "h" 63mm, eixo em aço endurecido e pinos de segurança para garantir durabilidade; tubo central com pistão pneumático a gás, com capa protetora, encosto interligado ao assento por tubo com capa protetora; assento com regulagens de inclinação e altura; encosto com regulagens de inclinação e altura. De acordo com a Portaria n.º 3751/90, NR-17-ERGONOMIA, do Ministério do Trabalho e Previdência Social. Garantia mínima de 05 anos contra defeitos de fabricação.</t>
-  </si>
-  <si>
-    <t>ARQUIVO - 5° ANDAR</t>
-  </si>
-  <si>
-    <t>Equipamento da categoria Switch Ethernet - Tipo 2. Demais especificações conforme Termo de Referência.</t>
-  </si>
-  <si>
-    <t>Shaft 2º andar</t>
-  </si>
-  <si>
-    <t>Monitor de vídeo LCD de 21,5". Demais especificações conforme termo de referência.</t>
-  </si>
-  <si>
-    <t>PORTO ALEGRE - EMPRESAS TERCEIRIZADAS</t>
-  </si>
-  <si>
-    <t>DITIC - TERCEIRIZADA - LTA-RH - CONTRATO Nº 139/2024-DEC</t>
-  </si>
-  <si>
-    <t>DITIC - TERCEIRIZADA - LTA-RH</t>
-  </si>
-  <si>
-    <t>SISTEMA ININTERRUPTO DE FORNECIMENTO DE ENERGIA ELÉTRICA (UPS) TIPO 2. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
-  </si>
-  <si>
-    <t>SALA DO SERVIDOR (CPD) - SALA 112</t>
-  </si>
-  <si>
-    <t>Comutador Ethernet LAN Tipo 2</t>
-  </si>
-  <si>
-    <t>Nobreak de 1kVA, 127V ou 220V, do tipo linha interativa senoidal, incluindo a entrega, a substituição do nobreak local e a logística reversa - Inclusive em horário extraordinário. Demais Especificações conforme Memorial Descritivo</t>
-  </si>
-  <si>
-    <t>SALA DE AUDIÊNCIAS - MULTIUSO - 406</t>
   </si>
   <si>
     <t>Comarca</t>
@@ -1172,17 +1039,9 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1219,7 +1078,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1301,21 +1175,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1350,6 +1209,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1365,91 +1239,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3D48CDA4-B41C-4739-8853-4139F8423627}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{629F4A88-900A-4716-AD80-C8E27E6554FE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1479,7 +1354,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B800F5-AD35-46A5-8501-ACD8F7043418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CC5063-EB4B-4284-85AB-0A30F58F77D2}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1520,7 +1395,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A519B8-1097-44C1-B99D-422A9F8D4F53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DCC961-D6C6-455D-A903-25C007B76223}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1458,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608147E4-E02F-4EDF-8E66-7717D0053F3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2466054C-1E54-48B4-8C84-DA9A2CAD46D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1477,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C416B3-201F-EB6B-31E6-09A8F44BF981}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BB0466-19DE-B6E2-3545-A3FE808D3A5A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1651,7 +1526,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A04429-C898-6D3D-04FB-AF482BE0D938}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5550F4B2-01EB-C1C1-1705-B91ADF46C297}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1670,7 +1545,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9477FE5-1ABC-88E6-A9FE-397F8851ADB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDE9E8D-D105-13D5-61C2-0E6EBF86CCA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1701,7 +1576,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1648E987-DC70-7ED6-1D99-16463269D2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69579E5-D0C6-A84E-5167-00373D55F534}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1732,7 +1607,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D510B38F-7880-E51F-20AF-740853685932}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E077F6BF-37FD-5DF1-17B8-A26F7D097B14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1775,7 +1650,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195EE929-24BA-4F64-8FE7-CC76903B0529}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E07EA8C-95AC-459E-8D4A-8DA8BE6DF616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1688,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9413CE3B-6858-49A5-B38E-E4134B9C578C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28392797-3876-4A56-971A-6A42181802B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E7CA8-FB17-492C-B1E9-64AEE3173D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BC9C1-749E-4973-BB04-3E7AD5119624}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2137,98 +2012,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5687,23 +5562,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
-    <col min="9" max="9" width="89" customWidth="1"/>
-    <col min="10" max="10" width="72.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,20 +5620,20 @@
       <c r="A2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="14">
-        <v>550693000</v>
+      <c r="B2" s="25">
+        <v>47287</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>295</v>
       </c>
       <c r="D2" s="18">
-        <v>179.3</v>
+        <v>118</v>
       </c>
       <c r="E2" s="18">
-        <v>17.93</v>
+        <v>11.8</v>
       </c>
       <c r="F2" s="14">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>296</v>
@@ -5772,28 +5647,28 @@
       <c r="J2" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="25">
-        <v>242</v>
+      <c r="K2" s="26">
+        <v>17626</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="14">
-        <v>341957</v>
+      <c r="B3" s="25">
+        <v>205937</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>300</v>
       </c>
       <c r="D3" s="18">
-        <v>77.8</v>
+        <v>173.8</v>
       </c>
       <c r="E3" s="18">
-        <v>7.78</v>
+        <v>17.38</v>
       </c>
       <c r="F3" s="14">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>296</v>
@@ -5802,33 +5677,33 @@
         <v>297</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K3" s="25">
-        <v>12278</v>
+        <v>299</v>
+      </c>
+      <c r="K3" s="26">
+        <v>17626</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="14">
-        <v>1690780500</v>
+      <c r="B4" s="25">
+        <v>337985</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D4" s="18">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="E4" s="18">
-        <v>15.3</v>
+        <v>30</v>
       </c>
       <c r="F4" s="14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>296</v>
@@ -5842,112 +5717,112 @@
       <c r="J4" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="25">
-        <v>242</v>
+      <c r="K4" s="26">
+        <v>17626</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="14">
-        <v>1910393000</v>
+      <c r="B5" s="25">
+        <v>341229</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D5" s="18">
-        <v>184.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="E5" s="18">
-        <v>18.489999999999998</v>
+        <v>7.89</v>
       </c>
       <c r="F5" s="14">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>297</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K5" s="25">
-        <v>12278</v>
+        <v>305</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1129</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="14">
-        <v>47287</v>
+      <c r="B6" s="25">
+        <v>121265600</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D6" s="18">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E6" s="18">
-        <v>11.8</v>
+        <v>16.8</v>
       </c>
       <c r="F6" s="14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>297</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K6" s="25">
-        <v>17626</v>
+        <v>308</v>
+      </c>
+      <c r="K6" s="26">
+        <v>9633</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="14">
-        <v>205937</v>
+      <c r="B7" s="25">
+        <v>257002</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D7" s="18">
-        <v>173.8</v>
+        <v>2400</v>
       </c>
       <c r="E7" s="18">
-        <v>17.38</v>
+        <v>240</v>
       </c>
       <c r="F7" s="14">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>297</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25">
+        <v>299</v>
+      </c>
+      <c r="K7" s="26">
         <v>17626</v>
       </c>
     </row>
@@ -5955,1085 +5830,35 @@
       <c r="A8" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="14">
-        <v>269647</v>
+      <c r="B8" s="25">
+        <v>337991</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D8" s="18">
-        <v>562.07000000000005</v>
+        <v>277.52</v>
       </c>
       <c r="E8" s="18">
-        <v>56.21</v>
+        <v>27.75</v>
       </c>
       <c r="F8" s="14">
-        <v>5.4</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>297</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="K8" s="25">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="14">
-        <v>337985</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="18">
-        <v>300</v>
-      </c>
-      <c r="E9" s="18">
-        <v>30</v>
-      </c>
-      <c r="F9" s="14">
-        <v>50</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K9" s="25">
-        <v>17626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="14">
-        <v>710886200</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="18">
-        <v>77.8</v>
-      </c>
-      <c r="E10" s="18">
-        <v>7.78</v>
-      </c>
-      <c r="F10" s="14">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="K10" s="25">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1920198100</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="18">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="E11" s="18">
-        <v>7.59</v>
-      </c>
-      <c r="F11" s="14">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="K11" s="25">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="14">
-        <v>330521</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="18">
-        <v>400</v>
-      </c>
-      <c r="E12" s="18">
-        <v>40</v>
-      </c>
-      <c r="F12" s="14">
-        <v>50</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="K12" s="25">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="14">
-        <v>341925</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="18">
-        <v>170</v>
-      </c>
-      <c r="E13" s="18">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="K13" s="25">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="14">
-        <v>341229</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" s="18">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E14" s="18">
-        <v>7.89</v>
-      </c>
-      <c r="F14" s="14">
-        <v>40</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="K14" s="25">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="14">
-        <v>121265600</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D15" s="18">
-        <v>168</v>
-      </c>
-      <c r="E15" s="18">
-        <v>16.8</v>
-      </c>
-      <c r="F15" s="14">
-        <v>25</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="K15" s="25">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="14">
-        <v>137414</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D16" s="18">
-        <v>720</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>15</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="K16" s="25">
-        <v>9742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="14">
-        <v>56275</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="18">
-        <v>214.95</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="25">
-        <v>9741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" s="14">
-        <v>257002</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2400</v>
-      </c>
-      <c r="E18" s="18">
-        <v>240</v>
-      </c>
-      <c r="F18" s="14">
-        <v>25</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" s="25">
-        <v>17626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="14">
-        <v>197544</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="18">
-        <v>173.8</v>
-      </c>
-      <c r="E19" s="18">
-        <v>17.38</v>
-      </c>
-      <c r="F19" s="14">
-        <v>50</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="25">
-        <v>9741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="14">
-        <v>260612</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="18">
-        <v>214.62</v>
-      </c>
-      <c r="E20" s="18">
-        <v>21.46</v>
-      </c>
-      <c r="F20" s="14">
-        <v>40</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="25">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="14">
-        <v>308301</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21" s="18">
-        <v>224.8</v>
-      </c>
-      <c r="E21" s="18">
-        <v>22.48</v>
-      </c>
-      <c r="F21" s="14">
-        <v>55</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="K21" s="25">
-        <v>9849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="14">
-        <v>318138</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="18">
-        <v>224.8</v>
-      </c>
-      <c r="E22" s="18">
-        <v>22.48</v>
-      </c>
-      <c r="F22" s="14">
-        <v>50</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="K22" s="25">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="14">
-        <v>318144</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D23" s="18">
-        <v>224.8</v>
-      </c>
-      <c r="E23" s="18">
-        <v>22.48</v>
-      </c>
-      <c r="F23" s="14">
-        <v>50</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="K23" s="25">
-        <v>9741</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="14">
-        <v>337991</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="18">
-        <v>277.52</v>
-      </c>
-      <c r="E24" s="18">
-        <v>27.75</v>
-      </c>
-      <c r="F24" s="14">
-        <v>50</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="K24" s="25">
+      <c r="K8" s="26">
         <v>9726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" s="14">
-        <v>342244</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D25" s="18">
-        <v>170</v>
-      </c>
-      <c r="E25" s="18">
-        <v>17</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="K25" s="25">
-        <v>9742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B26" s="14">
-        <v>342245</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="18">
-        <v>170</v>
-      </c>
-      <c r="E26" s="18">
-        <v>17</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="25">
-        <v>9742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" s="14">
-        <v>342236</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="18">
-        <v>170</v>
-      </c>
-      <c r="E27" s="18">
-        <v>17</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="K27" s="25">
-        <v>11558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="14">
-        <v>342240</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D28" s="18">
-        <v>170</v>
-      </c>
-      <c r="E28" s="18">
-        <v>17</v>
-      </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="K28" s="25">
-        <v>12212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B29" s="14">
-        <v>342241</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D29" s="18">
-        <v>170</v>
-      </c>
-      <c r="E29" s="18">
-        <v>17</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="K29" s="25">
-        <v>12212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" s="14">
-        <v>352494</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D30" s="18">
-        <v>188</v>
-      </c>
-      <c r="E30" s="18">
-        <v>18.8</v>
-      </c>
-      <c r="F30" s="14">
-        <v>40</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="K30" s="25">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" s="14">
-        <v>369907</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="18">
-        <v>5326.6</v>
-      </c>
-      <c r="E31" s="18">
-        <v>532.66</v>
-      </c>
-      <c r="F31" s="14">
-        <v>5</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="K31" s="25">
-        <v>18181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="14">
-        <v>414474</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D32" s="18">
-        <v>189.88</v>
-      </c>
-      <c r="E32" s="18">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="F32" s="14">
-        <v>15</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="K32" s="25">
-        <v>9732</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="14">
-        <v>420738</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D33" s="18">
-        <v>367</v>
-      </c>
-      <c r="E33" s="18">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="F33" s="14">
-        <v>12</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="K33" s="25">
-        <v>13936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="14">
-        <v>430217</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D34" s="18">
-        <v>4262</v>
-      </c>
-      <c r="E34" s="18">
-        <v>426.2</v>
-      </c>
-      <c r="F34" s="14">
-        <v>5</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K34" s="25">
-        <v>18179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" s="14">
-        <v>484939</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D35" s="18">
-        <v>600</v>
-      </c>
-      <c r="E35" s="18">
-        <v>60</v>
-      </c>
-      <c r="F35" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="K35" s="25">
-        <v>33673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="14">
-        <v>441186</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" s="18">
-        <v>4500</v>
-      </c>
-      <c r="E36" s="18">
-        <v>2036.25</v>
-      </c>
-      <c r="F36" s="14">
-        <v>60</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="K36" s="25">
-        <v>12886</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B37" s="14">
-        <v>441019</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D37" s="18">
-        <v>11000</v>
-      </c>
-      <c r="E37" s="18">
-        <v>4977.5</v>
-      </c>
-      <c r="F37" s="14">
-        <v>5.53</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K37" s="25">
-        <v>18179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="14">
-        <v>539393</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D38" s="18">
-        <v>2662.06</v>
-      </c>
-      <c r="E38" s="18">
-        <v>2183.02</v>
-      </c>
-      <c r="F38" s="14">
-        <v>17.3</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="K38" s="25">
-        <v>18376</v>
       </c>
     </row>
   </sheetData>
@@ -7063,50 +5888,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>370</v>
+      <c r="A1" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7114,44 +5939,44 @@
         <v>255</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="29">
+        <v>327</v>
+      </c>
+      <c r="C2" s="30">
         <v>45870</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="32">
         <v>32736</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="32">
         <v>3693</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>374</v>
+      <c r="H2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>330</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>374</v>
+        <v>331</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
